--- a/biology/Botanique/L'Âge_d'or_(film,_2020)/L'Âge_d'or_(film,_2020).xlsx
+++ b/biology/Botanique/L'Âge_d'or_(film,_2020)/L'Âge_d'or_(film,_2020).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27%C3%82ge_d%27or_(film,_2020)</t>
+          <t>L'Âge_d'or_(film,_2020)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Âge d'or est un film français réalisé par Jean-Baptiste Alazard et sorti en 2020.
-Il fait partie de la trilogie documentaire intitulée Le Tiercé des paumés[1]. 
+Il fait partie de la trilogie documentaire intitulée Le Tiercé des paumés. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27%C3%82ge_d%27or_(film,_2020)</t>
+          <t>L'Âge_d'or_(film,_2020)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27%C3%82ge_d%27or_(film,_2020)</t>
+          <t>L'Âge_d'or_(film,_2020)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : L'Âge d'or
 Réalisation : Jean-Baptiste Alazard
@@ -550,7 +566,7 @@
 Pays de production :  France
 Genre : documentaire
 Durée : 68 minutes
-Date de sortie : France - 13 mars 2020[2]</t>
+Date de sortie : France - 13 mars 2020</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27%C3%82ge_d%27or_(film,_2020)</t>
+          <t>L'Âge_d'or_(film,_2020)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titou Picard
 Soledad Zarka</t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27%C3%82ge_d%27or_(film,_2020)</t>
+          <t>L'Âge_d'or_(film,_2020)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +627,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix du patrimoine de l'immatériel au festival Cinéma du réel 2020[3]
-Grand Prix du jury au Most Festival (Barcelone)[4]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix du patrimoine de l'immatériel au festival Cinéma du réel 2020
+Grand Prix du jury au Most Festival (Barcelone)</t>
         </is>
       </c>
     </row>
